--- a/Aquisition.xlsx
+++ b/Aquisition.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UQAC\UQAC\DOCTORAT\SLRIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SLRIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3C4203-6000-40FC-8716-78F299DE63BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF89CAF-1F5A-4986-AAF0-B1BF61F86DDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18135" yWindow="4365" windowWidth="21600" windowHeight="11385" xr2:uid="{6E84F27D-6199-4E90-8DE4-24C7F246E5FA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E84F27D-6199-4E90-8DE4-24C7F246E5FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="152">
   <si>
     <t>Titre</t>
   </si>
@@ -60,78 +61,39 @@
     <t>A Novel Biometric Approach in Human Verification by PPG signals</t>
   </si>
   <si>
-    <t>Gu2003Novel</t>
-  </si>
-  <si>
     <t>PPG Authentication Through Fuzzy Logic</t>
   </si>
   <si>
-    <t>PPG2003Gu</t>
-  </si>
-  <si>
     <t>A Pilot Study on Using Derivatives of PPG Signals as a biometric identifier</t>
   </si>
   <si>
-    <t>Yao2007Pilot</t>
-  </si>
-  <si>
     <t>Enhancement in the design of Biometric Identificaiton System based on PPG data</t>
   </si>
   <si>
-    <t>Salanke2013Enhancement</t>
-  </si>
-  <si>
     <t>A Preliminary Study on Continuous Authentication Methods for PPG biometrics</t>
   </si>
   <si>
-    <t>Bonissi2013Preliminary</t>
-  </si>
-  <si>
     <t>an enhanced intrinsic biometric in identifying people by photopleythsmography signal</t>
   </si>
   <si>
-    <t>girishraosalanke2013an</t>
-  </si>
-  <si>
     <t>A novel feature ranking algorithm for biometric recognition with PPG signals</t>
   </si>
   <si>
-    <t>Kavsaoglu2014novel</t>
-  </si>
-  <si>
     <t>Spachos2014feasibility</t>
   </si>
   <si>
-    <t>PPG as form of biometric Authentication</t>
-  </si>
-  <si>
-    <t>Lee2015PPG</t>
-  </si>
-  <si>
     <t>APG Based Biometric Identification</t>
   </si>
   <si>
-    <t>Jafaar2015Acceleration</t>
-  </si>
-  <si>
     <t>Biometric Authentication Using PPG Signals</t>
   </si>
   <si>
-    <t>Sarkar2016Biometric</t>
-  </si>
-  <si>
     <t>An adaptive Deep Learning Approach for PPG-based Identification</t>
   </si>
   <si>
-    <t>Jindal2016Adaptative</t>
-  </si>
-  <si>
     <t>PPG signal based biometric recognition using Linear Discriminant Classifier</t>
   </si>
   <si>
-    <t>Chakraborty2016PPG</t>
-  </si>
-  <si>
     <t>robust photoplethysmographic (ppg) based biometric authentication for wireless body area networks and m-health applications</t>
   </si>
   <si>
@@ -141,39 +103,18 @@
     <t>Human Recognition from PPG based on non fiducial features</t>
   </si>
   <si>
-    <t>Karimian2017Human</t>
-  </si>
-  <si>
-    <t>Yathav2017miBEAT</t>
-  </si>
-  <si>
     <t>Non-fiducial PPG-based authentication for healthcare applicatio</t>
   </si>
   <si>
     <t>Non-Fiducial2017Karimian</t>
   </si>
   <si>
-    <t>The study of PPG and APG Signals for Biometric Recognition</t>
-  </si>
-  <si>
-    <t>Sidek2018Study</t>
-  </si>
-  <si>
     <t>Personal Identification via Heartbeat Signal</t>
   </si>
   <si>
     <t>Horng2018Personal</t>
   </si>
   <si>
-    <t>Biometric Identification Using Photoplethysmography Signal</t>
-  </si>
-  <si>
-    <t>Al-Sidani2018Biometric</t>
-  </si>
-  <si>
-    <t>Azam2018PPG</t>
-  </si>
-  <si>
     <t>Everson2018BiometricNet</t>
   </si>
   <si>
@@ -183,36 +124,21 @@
     <t>CorNET : Deep learning framework for PPG</t>
   </si>
   <si>
-    <t>Biwas2019cornet</t>
-  </si>
-  <si>
     <t>A Low Complexity Compressed Sensing Reconstruction Method for Heart Signal Biometric Recognition</t>
   </si>
   <si>
-    <t>Xaio2019Low</t>
-  </si>
-  <si>
     <t>Wearabke Bio-Signal PPG based Personal Auth Method using Random Forest</t>
   </si>
   <si>
-    <t>Lee2019Wearable</t>
-  </si>
-  <si>
     <t>PPG-based2019hwang</t>
   </si>
   <si>
     <t>a correlation-based biometric identification technique for ecg, ppg and emg</t>
   </si>
   <si>
-    <t>correlation2019Parago</t>
-  </si>
-  <si>
     <t>Evaluation of the Time Stability and Uniquineness in PPG based Biometric System</t>
   </si>
   <si>
-    <t>Hwang2020Evaluation</t>
-  </si>
-  <si>
     <t>Comparison between KNN and SVM Algorithm for PPG Biometric Identification</t>
   </si>
   <si>
@@ -228,9 +154,6 @@
     <t>Pattern Analysis Toward Human Verification using PPG Signals</t>
   </si>
   <si>
-    <t>Khan2020Pattern</t>
-  </si>
-  <si>
     <t>Yadav2017Evaluation</t>
   </si>
   <si>
@@ -394,13 +317,187 @@
   </si>
   <si>
     <t>30min x 1</t>
+  </si>
+  <si>
+    <t>gu2003novel</t>
+  </si>
+  <si>
+    <t>gu2003photoplethysmographic</t>
+  </si>
+  <si>
+    <t>yao2007pilot</t>
+  </si>
+  <si>
+    <t>salanke2013enhanced</t>
+  </si>
+  <si>
+    <t>bonissi2013preliminary</t>
+  </si>
+  <si>
+    <t>salanke2013enhancement</t>
+  </si>
+  <si>
+    <t>kavsaouglu2014novel</t>
+  </si>
+  <si>
+    <t>lee2015photoplethysmography</t>
+  </si>
+  <si>
+    <t>Photoplethysmography as a form of biometric authentication</t>
+  </si>
+  <si>
+    <t>jaafar2015acceleration</t>
+  </si>
+  <si>
+    <t>sarkar2016biometric</t>
+  </si>
+  <si>
+    <t>jindal2016adaptive</t>
+  </si>
+  <si>
+    <t>chakraborty2016photoplethysmogram</t>
+  </si>
+  <si>
+    <t>karimian2017human</t>
+  </si>
+  <si>
+    <t>yathav2017mibeat</t>
+  </si>
+  <si>
+    <t>karimian2017non</t>
+  </si>
+  <si>
+    <t>al2018biometrie</t>
+  </si>
+  <si>
+    <t>Biometrie identification using photoplethysmography signal</t>
+  </si>
+  <si>
+    <t>azam2018photoplethysmogram</t>
+  </si>
+  <si>
+    <t>Photoplethysmogram Based Biometric Identification Incorporating Different Age and Gender Group</t>
+  </si>
+  <si>
+    <t>biswas2019a</t>
+  </si>
+  <si>
+    <t>xiao2019low</t>
+  </si>
+  <si>
+    <t>lee2019wearable</t>
+  </si>
+  <si>
+    <t>farago2019correlation</t>
+  </si>
+  <si>
+    <t>hwang2020evaluation</t>
+  </si>
+  <si>
+    <t>khan2020pattern</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Refernces</t>
+  </si>
+  <si>
+    <t>Capnobase IEEE TBME</t>
+  </si>
+  <si>
+    <t>8min x 1</t>
+  </si>
+  <si>
+    <t>MIT-BIH Polysomnographic Database (slpdb)</t>
+  </si>
+  <si>
+    <t>choudhary2016robust;</t>
+  </si>
+  <si>
+    <t>sleep; patients with sleep apnea</t>
+  </si>
+  <si>
+    <t>OpenSignal PPG Dataset</t>
+  </si>
+  <si>
+    <t>Finger PPG</t>
+  </si>
+  <si>
+    <t>not available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not </t>
+  </si>
+  <si>
+    <t>Spachos2014;</t>
+  </si>
+  <si>
+    <t>3min</t>
+  </si>
+  <si>
+    <t>BioSec PPG Dataset (old)</t>
+  </si>
+  <si>
+    <t>Yadav2017;</t>
+  </si>
+  <si>
+    <t>3x2</t>
+  </si>
+  <si>
+    <t>Finger PPG; 1 relax; 1 exercices</t>
+  </si>
+  <si>
+    <t>BioSecPPG (2017)-1</t>
+  </si>
+  <si>
+    <t>BioSecPPG (2017)-2</t>
+  </si>
+  <si>
+    <t>3minx1</t>
+  </si>
+  <si>
+    <t>Finger PPG; relax</t>
+  </si>
+  <si>
+    <t>BioSecPPG (2017)-3</t>
+  </si>
+  <si>
+    <t>BioSecPPG (2017)-4</t>
+  </si>
+  <si>
+    <t>100 Hz</t>
+  </si>
+  <si>
+    <t>3min x2</t>
+  </si>
+  <si>
+    <t>Finger PPG; relax; 30min between two sessions</t>
+  </si>
+  <si>
+    <t>Finger PPG; relax; 2 weeks between two sessions</t>
+  </si>
+  <si>
+    <t>karimian2017non ; yadav2017;</t>
+  </si>
+  <si>
+    <t>DEAP Dataset</t>
+  </si>
+  <si>
+    <t>40 differents emotional states</t>
+  </si>
+  <si>
+    <t>MIMIC II WAVEFORM</t>
+  </si>
+  <si>
+    <t>10s x1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,8 +505,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,8 +531,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -682,24 +791,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -716,9 +826,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -745,9 +852,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -772,7 +876,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -782,12 +885,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1104,657 +1244,868 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1AD090-164B-461C-B00C-BA68E5EEA42F}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="1" max="2" width="25.33203125" style="29" customWidth="1"/>
+    <col min="3" max="16384" width="22.44140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="37"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="29">
+        <v>17</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="B4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="29">
+        <v>17</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="29">
+        <v>3</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="29">
+        <v>8</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="29">
+        <v>44</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="29">
+        <v>9</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="29">
+        <v>30</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="29">
+        <v>10</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="29">
+        <v>10</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="29">
+        <v>23</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="29">
+        <v>12</v>
+      </c>
+      <c r="F14" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="26" t="s">
+    </row>
+    <row r="15" spans="1:6" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="E3">
-        <v>17</v>
-      </c>
-      <c r="F3" s="27" t="s">
+      <c r="E15" s="30">
+        <v>15</v>
+      </c>
+      <c r="F15" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="9" t="s">
+    <row r="16" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="30">
+        <v>42</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="30">
+        <v>20</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="29">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F19" s="29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="29">
+        <v>50</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="29">
+        <v>23</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="29">
+        <v>36</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="29">
+        <v>20</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="29">
+        <v>23</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="29">
+        <v>42</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="29">
+        <v>30</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="29">
+        <v>100</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="29">
+        <v>20</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="22"/>
+      <c r="B38" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="32">
+        <v>29</v>
+      </c>
+      <c r="F38" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="E4">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="18"/>
+      <c r="B43" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="18"/>
+      <c r="B44" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="23"/>
+      <c r="B45" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="6"/>
+      <c r="B46" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="23"/>
+      <c r="B47" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="32" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A50" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="E5">
+      <c r="D50" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" s="32">
+        <v>42</v>
+      </c>
+      <c r="F50" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="18"/>
+      <c r="B51" s="6"/>
+    </row>
+    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="37"/>
+    </row>
+    <row r="53" spans="1:6" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="35"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="D53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E54" s="29">
+        <v>42</v>
+      </c>
+      <c r="F54" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E55" s="6">
+        <v>16</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="E56" s="29">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="F56" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E57" s="29">
         <v>15</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="F57" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E58" s="29">
+        <v>40</v>
+      </c>
+      <c r="F58" s="29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="E59" s="29">
         <v>86</v>
       </c>
-      <c r="E9">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11">
+      <c r="F59" s="29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E60" s="29">
+        <v>55</v>
+      </c>
+      <c r="F60" s="29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E61" s="29">
+        <v>37</v>
+      </c>
+      <c r="F61" s="29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E62" s="29">
+        <v>32</v>
+      </c>
+      <c r="F62" s="29" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D63" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="E63" s="29">
         <v>10</v>
       </c>
-      <c r="F11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13">
-        <v>23</v>
-      </c>
-      <c r="F13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="33">
-        <v>15</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="33">
-        <v>42</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="33">
-        <v>20</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20">
-        <v>50</v>
-      </c>
-      <c r="F20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21">
-        <v>23</v>
-      </c>
-      <c r="F21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" t="s">
-        <v>110</v>
-      </c>
-      <c r="E22">
-        <v>36</v>
-      </c>
-      <c r="F22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" t="s">
-        <v>111</v>
-      </c>
-      <c r="E23">
-        <v>20</v>
-      </c>
-      <c r="F23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" t="s">
-        <v>112</v>
-      </c>
-      <c r="D24" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24">
-        <v>23</v>
-      </c>
-      <c r="F24" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" t="s">
-        <v>114</v>
-      </c>
-      <c r="E25">
-        <v>42</v>
-      </c>
-      <c r="F25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26">
-        <v>30</v>
-      </c>
-      <c r="F26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" t="s">
-        <v>116</v>
-      </c>
-      <c r="D27" t="s">
-        <v>117</v>
-      </c>
-      <c r="E27">
-        <v>100</v>
-      </c>
-      <c r="F27" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" t="s">
-        <v>118</v>
-      </c>
-      <c r="D30" t="s">
-        <v>119</v>
-      </c>
-      <c r="E30">
-        <v>20</v>
-      </c>
-      <c r="F30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="29">
-        <v>29</v>
-      </c>
-      <c r="F38" s="29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="D40" s="29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
-      <c r="B43" s="22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
-      <c r="B44" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="30"/>
-      <c r="B45" s="22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="30"/>
-      <c r="B47" s="25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="29" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" s="36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="29" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A50" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50" s="22" t="s">
+      <c r="F63" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="D50" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="E50" s="29">
-        <v>42</v>
-      </c>
-      <c r="F50" s="29" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
-      <c r="B51" s="10"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:F52"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Aquisition.xlsx
+++ b/Aquisition.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SLRIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UQAC\UQAC\DOCTORAT\SLRIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF89CAF-1F5A-4986-AAF0-B1BF61F86DDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DC98C6-E2B8-4BD9-8C16-C993FF05B748}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E84F27D-6199-4E90-8DE4-24C7F246E5FA}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="19035" windowHeight="15435" xr2:uid="{6E84F27D-6199-4E90-8DE4-24C7F246E5FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="179">
   <si>
     <t>Titre</t>
   </si>
@@ -58,9 +57,6 @@
     <t>conditions</t>
   </si>
   <si>
-    <t>A Novel Biometric Approach in Human Verification by PPG signals</t>
-  </si>
-  <si>
     <t>PPG Authentication Through Fuzzy Logic</t>
   </si>
   <si>
@@ -79,9 +75,6 @@
     <t>A novel feature ranking algorithm for biometric recognition with PPG signals</t>
   </si>
   <si>
-    <t>Spachos2014feasibility</t>
-  </si>
-  <si>
     <t>APG Based Biometric Identification</t>
   </si>
   <si>
@@ -118,18 +111,12 @@
     <t>Everson2018BiometricNet</t>
   </si>
   <si>
-    <t>development2018Sidek</t>
-  </si>
-  <si>
     <t>CorNET : Deep learning framework for PPG</t>
   </si>
   <si>
     <t>A Low Complexity Compressed Sensing Reconstruction Method for Heart Signal Biometric Recognition</t>
   </si>
   <si>
-    <t>Wearabke Bio-Signal PPG based Personal Auth Method using Random Forest</t>
-  </si>
-  <si>
     <t>PPG-based2019hwang</t>
   </si>
   <si>
@@ -148,36 +135,18 @@
     <t>A Nonfiducial PPG-Based Subject Authentication Approach Using the Statistical Features of DWT-based Filtered Signals</t>
   </si>
   <si>
-    <t>Alotaibly2020Nonfiducial</t>
-  </si>
-  <si>
     <t>Pattern Analysis Toward Human Verification using PPG Signals</t>
   </si>
   <si>
-    <t>Yadav2017Evaluation</t>
-  </si>
-  <si>
-    <t>Sancho2018Biometric</t>
-  </si>
-  <si>
     <t>End-toend2018Luque</t>
   </si>
   <si>
-    <t>Yang2020PPG</t>
-  </si>
-  <si>
     <t>Aydemir2020Biometric</t>
   </si>
   <si>
     <t>Lee2020Cross</t>
   </si>
   <si>
-    <t>1000Hz</t>
-  </si>
-  <si>
-    <t>1min</t>
-  </si>
-  <si>
     <t>Finger PPG; in relaxation</t>
   </si>
   <si>
@@ -319,9 +288,6 @@
     <t>30min x 1</t>
   </si>
   <si>
-    <t>gu2003novel</t>
-  </si>
-  <si>
     <t>gu2003photoplethysmographic</t>
   </si>
   <si>
@@ -430,18 +396,12 @@
     <t xml:space="preserve">not </t>
   </si>
   <si>
-    <t>Spachos2014;</t>
-  </si>
-  <si>
     <t>3min</t>
   </si>
   <si>
     <t>BioSec PPG Dataset (old)</t>
   </si>
   <si>
-    <t>Yadav2017;</t>
-  </si>
-  <si>
     <t>3x2</t>
   </si>
   <si>
@@ -478,9 +438,6 @@
     <t>Finger PPG; relax; 2 weeks between two sessions</t>
   </si>
   <si>
-    <t>karimian2017non ; yadav2017;</t>
-  </si>
-  <si>
     <t>DEAP Dataset</t>
   </si>
   <si>
@@ -491,6 +448,129 @@
   </si>
   <si>
     <t>10s x1</t>
+  </si>
+  <si>
+    <t>TROIKA</t>
+  </si>
+  <si>
+    <t>6minx1</t>
+  </si>
+  <si>
+    <t>wrist PPG; intense physical exercice, from 1-km/h to 12-15 km/h</t>
+  </si>
+  <si>
+    <t>Berry</t>
+  </si>
+  <si>
+    <t>Nonin</t>
+  </si>
+  <si>
+    <t>8minx1</t>
+  </si>
+  <si>
+    <t>75Hz</t>
+  </si>
+  <si>
+    <t>1minx3</t>
+  </si>
+  <si>
+    <t>Wrist PPG; relax; 7 days intervals</t>
+  </si>
+  <si>
+    <t>Finger PPG; relax; 7 days intervals</t>
+  </si>
+  <si>
+    <t>PulseID</t>
+  </si>
+  <si>
+    <t>1minx5</t>
+  </si>
+  <si>
+    <t>BIDMC</t>
+  </si>
+  <si>
+    <t>Everson2018BiometricNet;Luque2018;lee2020cross</t>
+  </si>
+  <si>
+    <t>Vortal dataset</t>
+  </si>
+  <si>
+    <t>10min x1</t>
+  </si>
+  <si>
+    <t>sancho2018biometricBiometric</t>
+  </si>
+  <si>
+    <t>sancho2018biometric</t>
+  </si>
+  <si>
+    <t>yang2020photoplethysmographyPPG</t>
+  </si>
+  <si>
+    <t>yang2020photoplethysmography</t>
+  </si>
+  <si>
+    <t>alotaiby2020nonfiducialNonfiducial</t>
+  </si>
+  <si>
+    <t>spachos2011feasibilityfeasibility</t>
+  </si>
+  <si>
+    <t>spachos2011feasibility;</t>
+  </si>
+  <si>
+    <t>yadav2018evaluationEvaluation</t>
+  </si>
+  <si>
+    <t>yadav2018evaluation;</t>
+  </si>
+  <si>
+    <t>hwang2019ppg</t>
+  </si>
+  <si>
+    <t>sidek2015development</t>
+  </si>
+  <si>
+    <t>sidek2015development;sancho2018biometric;yang2020photoplethysmography</t>
+  </si>
+  <si>
+    <t>luque2018end</t>
+  </si>
+  <si>
+    <t>MOYENNE</t>
+  </si>
+  <si>
+    <t>MEDIANE</t>
+  </si>
+  <si>
+    <t>ECART YPE</t>
+  </si>
+  <si>
+    <t>MOY</t>
+  </si>
+  <si>
+    <t>MED</t>
+  </si>
+  <si>
+    <t>ECART</t>
+  </si>
+  <si>
+    <t>sidek2018study</t>
+  </si>
+  <si>
+    <t>1minx1</t>
+  </si>
+  <si>
+    <t>wearable biosignal(ppg)-based personal authentication method using random forest and period setting considering the feature of ppg signals</t>
+  </si>
+  <si>
+    <t>al2019comparison</t>
+  </si>
+  <si>
+    <t>yadav2018evaluation; hwang2020evaluation</t>
+  </si>
+  <si>
+    <t>karimian2017non ; yadav2018evaluation;sancho2018biometric;yang2020photoplethysmography;alotaiby2020nonfiducial;lee2019wearables;hwang2020evaluation</t>
   </si>
 </sst>
 </file>
@@ -538,7 +618,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -779,19 +859,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -808,14 +875,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -858,21 +922,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -886,9 +941,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -909,6 +961,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -927,7 +985,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1244,35 +1302,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1AD090-164B-461C-B00C-BA68E5EEA42F}">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="25.33203125" style="29" customWidth="1"/>
-    <col min="3" max="16384" width="22.44140625" style="29"/>
+    <col min="1" max="2" width="25.28515625" style="24" customWidth="1"/>
+    <col min="3" max="16384" width="22.42578125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
+    </row>
+    <row r="2" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1286,814 +1344,991 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="24">
+        <v>17</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="24">
+        <v>3</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="24">
+        <v>8</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="24">
+        <v>44</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="24">
+        <v>9</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="24">
+        <v>30</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="24">
+        <v>10</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="24">
+        <v>10</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="24">
+        <v>23</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="29">
+      <c r="C13" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="24">
+        <v>12</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="25">
+        <v>15</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="29">
-        <v>17</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="29" t="s">
+      <c r="C15" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="25">
+        <v>42</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="25">
+        <v>20</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="24">
+        <v>10</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="24">
         <v>50</v>
       </c>
-      <c r="E5" s="29">
+      <c r="F19" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="E20" s="24">
+        <v>10</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="24">
+        <v>23</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="24">
+        <v>36</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="24">
+        <v>20</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="24">
+        <v>23</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="24">
+        <v>30</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="24">
+        <v>20</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D31" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E31" s="24">
+        <f>AVERAGE(E3:E28)</f>
+        <v>21.136363636363637</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D32" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E32" s="24">
+        <f>MEDIAN(E3:E28)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D33" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="E33" s="24">
+        <f>_xlfn.STDEV.S(E3:E28)</f>
+        <v>12.848181099897278</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="24">
+        <v>100</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="24">
+        <v>42</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="E37" s="27">
+        <v>29</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="16"/>
+      <c r="B42" s="28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
+      <c r="B43" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="19"/>
+      <c r="B44" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="19"/>
+    </row>
+    <row r="47" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="27" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" s="27">
+        <v>42</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="16"/>
+      <c r="B50" s="5"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="34"/>
+    </row>
+    <row r="52" spans="1:6" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="32"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="D52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E53" s="24">
+        <v>42</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E54" s="5">
+        <v>16</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="E55" s="24">
+        <v>14</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E56" s="24">
+        <v>15</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E57" s="24">
+        <v>40</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E58" s="24">
+        <v>37</v>
+      </c>
+      <c r="F58" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="E59" s="24">
+        <v>100</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E60" s="24">
+        <v>32</v>
+      </c>
+      <c r="F60" s="24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E61" s="24">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="29" t="s">
+      <c r="F61" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="29" t="s">
+    </row>
+    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="E62" s="24">
+        <v>12</v>
+      </c>
+      <c r="F62" s="24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="E63" s="24">
+        <v>24</v>
+      </c>
+      <c r="F63" s="24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="E64" s="24">
+        <v>24</v>
+      </c>
+      <c r="F64" s="24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="E65" s="24">
+        <v>43</v>
+      </c>
+      <c r="F65" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="E66" s="24">
         <v>53</v>
       </c>
-      <c r="E6" s="29">
-        <v>8</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="29">
-        <v>44</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="29" t="s">
+      <c r="F66" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="E67" s="24">
+        <v>57</v>
+      </c>
+      <c r="F67" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D69" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="E69" s="24">
+        <f>AVERAGE(E53:E67)</f>
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D70" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="E70" s="24">
+        <f>MEDIAN(E53:E67)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D71" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="E71" s="24">
+        <f>_xlfn.STDEV.S(E53:E67)</f>
+        <v>23.572986961471688</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E75" s="24">
         <v>55</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="29">
-        <v>9</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="29">
-        <v>30</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="29">
-        <v>10</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="29">
-        <v>10</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="29">
-        <v>23</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="29">
-        <v>12</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="30">
-        <v>15</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="30">
-        <v>42</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="30">
-        <v>20</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="29">
-        <v>10</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="29">
-        <v>50</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="29">
-        <v>23</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="29">
-        <v>36</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" s="29">
-        <v>20</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="29">
-        <v>23</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="29">
-        <v>42</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="29">
-        <v>30</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="29">
-        <v>100</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="29">
-        <v>20</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="22"/>
-      <c r="B38" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="32">
-        <v>29</v>
-      </c>
-      <c r="F38" s="32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="6"/>
-      <c r="B41" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="6"/>
-      <c r="B42" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
-      <c r="B43" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
-      <c r="B44" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
-      <c r="B45" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="6"/>
-      <c r="B46" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="23"/>
-      <c r="B47" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B49" s="27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="32" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A50" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C50" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="D50" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="E50" s="32">
-        <v>42</v>
-      </c>
-      <c r="F50" s="32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="18"/>
-      <c r="B51" s="6"/>
-    </row>
-    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="B52" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="C52" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="37"/>
-    </row>
-    <row r="53" spans="1:6" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="35"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="B54" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="C54" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D54" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E54" s="29">
-        <v>42</v>
-      </c>
-      <c r="F54" s="29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E55" s="6">
-        <v>16</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B56" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="C56" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="D56" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="E56" s="29">
-        <v>14</v>
-      </c>
-      <c r="F56" s="29" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="C57" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="D57" s="29" t="s">
+      <c r="F75" s="24" t="s">
         <v>132</v>
-      </c>
-      <c r="E57" s="29">
-        <v>15</v>
-      </c>
-      <c r="F57" s="29" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="B58" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="C58" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="D58" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="E58" s="29">
-        <v>40</v>
-      </c>
-      <c r="F58" s="29" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="C59" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="D59" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="E59" s="29">
-        <v>86</v>
-      </c>
-      <c r="F59" s="29" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="C60" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="D60" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="E60" s="29">
-        <v>55</v>
-      </c>
-      <c r="F60" s="29" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="C61" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="D61" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="E61" s="29">
-        <v>37</v>
-      </c>
-      <c r="F61" s="29" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="B62" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="D62" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="E62" s="29">
-        <v>32</v>
-      </c>
-      <c r="F62" s="29" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="B63" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C63" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D63" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="E63" s="29">
-        <v>10</v>
-      </c>
-      <c r="F63" s="29" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2101,9 +2336,9 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:F51"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
